--- a/biology/Zoologie/Chaetodon_festivus/Chaetodon_festivus.xlsx
+++ b/biology/Zoologie/Chaetodon_festivus/Chaetodon_festivus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chaetodon festivus est un poisson appartenant à la famille des Chaetodontidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La description de Desjardins place 12 épines dans la nageoire dorsale de C. festivus et mentionne la présence de deux ocelles[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La description de Desjardins place 12 épines dans la nageoire dorsale de C. festivus et mentionne la présence de deux ocelles.
 </t>
         </is>
       </c>
@@ -542,11 +556,13 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Chaetodon festivus Desjardins, 1834[2].
-En 1878, Pieter Bleeker a tenté d'identifier l'espèce Chaetodon festivus, décrite par Julien Desjardins en 1834, comme étant en fait selon lui Tetragonopterus maculatus[3].
-En 1978, Warren Burgess place cette espèce comme incertae sedis dans sa classification car l'espèce n'a pas de type décrit. Il précise qu'elle ne peut pas être synonymisée avec Coradion melanopus à cause du nombre d'épines de la nageoire dorsale[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Chaetodon festivus Desjardins, 1834.
+En 1878, Pieter Bleeker a tenté d'identifier l'espèce Chaetodon festivus, décrite par Julien Desjardins en 1834, comme étant en fait selon lui Tetragonopterus maculatus.
+En 1978, Warren Burgess place cette espèce comme incertae sedis dans sa classification car l'espèce n'a pas de type décrit. Il précise qu'elle ne peut pas être synonymisée avec Coradion melanopus à cause du nombre d'épines de la nageoire dorsale.
 </t>
         </is>
       </c>
@@ -575,7 +591,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Julien Desjardins, « Chaetodon festivus », Proceedings of the Zoological Society of London, Londres, Zoological Society of London,‎ 1833, p. 177</t>
         </is>
